--- a/Data/Raw Electoral Data/Tamaulipas - 1995, 1998, 2001, 2004, 2007, 2010, 2013,2016,2018,2021,2024/24/Nuevo_Laredo_Tabla_de_Computo_Municipal.xlsx
+++ b/Data/Raw Electoral Data/Tamaulipas - 1995, 1998, 2001, 2004, 2007, 2010, 2013,2016,2018,2021,2024/24/Nuevo_Laredo_Tabla_de_Computo_Municipal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ylanderos.IETAM\Onedrive - Ylanderos\OneDrive - IETAM\tablas de resultados para transparencia\Trabajados\Ayuntamientos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jpzorrilla/Documents/GitHub/The-Mexican-municipal-elections-electoral-precinct-level-database/Data/Raw Electoral Data/Tamaulipas - 1995, 1998, 2001, 2004, 2007, 2010, 2013,2016,2018,2021,2024/24/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95AE4EB4-A2D8-4C0C-A2AF-B93988038FE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B750D11-A675-214C-89E1-C1FBC31DBC7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="21840" windowHeight="13140" xr2:uid="{B39AE2E6-FD1B-486A-BB5F-D7E2B024FF58}"/>
+    <workbookView xWindow="4480" yWindow="500" windowWidth="21840" windowHeight="13140" xr2:uid="{B39AE2E6-FD1B-486A-BB5F-D7E2B024FF58}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1832,7 +1832,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1846,16 +1846,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2804,9 +2800,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2844,7 +2840,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2950,7 +2946,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3092,7 +3088,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3109,76 +3105,76 @@
       <selection activeCell="A570" sqref="A570"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="6" width="8.7109375" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" customWidth="1"/>
-    <col min="10" max="10" width="19.42578125" customWidth="1"/>
-    <col min="11" max="15" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="6" width="8.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" customWidth="1"/>
+    <col min="9" max="9" width="14.5" customWidth="1"/>
+    <col min="10" max="10" width="19.5" customWidth="1"/>
+    <col min="11" max="15" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-    </row>
-    <row r="5" spans="1:15" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+    </row>
+    <row r="5" spans="1:15" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -3203,7 +3199,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -3250,7 +3246,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -3297,7 +3293,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -3344,7 +3340,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -3391,7 +3387,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -3438,7 +3434,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -3485,7 +3481,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -3532,7 +3528,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -3579,7 +3575,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -3626,7 +3622,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -3673,7 +3669,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -3720,7 +3716,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
@@ -3767,7 +3763,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -3814,7 +3810,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -3861,7 +3857,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -3908,7 +3904,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
@@ -3955,7 +3951,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
@@ -4002,7 +3998,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
@@ -4049,7 +4045,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
@@ -4096,7 +4092,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
@@ -4143,7 +4139,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
@@ -4190,7 +4186,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
@@ -4237,7 +4233,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
@@ -4284,7 +4280,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
@@ -4331,7 +4327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
@@ -4378,7 +4374,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>33</v>
       </c>
@@ -4425,7 +4421,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>34</v>
       </c>
@@ -4472,7 +4468,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>35</v>
       </c>
@@ -4519,7 +4515,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>36</v>
       </c>
@@ -4566,7 +4562,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>37</v>
       </c>
@@ -4613,7 +4609,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>38</v>
       </c>
@@ -4660,7 +4656,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>39</v>
       </c>
@@ -4707,7 +4703,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>40</v>
       </c>
@@ -4754,7 +4750,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>41</v>
       </c>
@@ -4801,7 +4797,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>42</v>
       </c>
@@ -4848,7 +4844,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>43</v>
       </c>
@@ -4895,7 +4891,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>44</v>
       </c>
@@ -4942,7 +4938,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>45</v>
       </c>
@@ -4989,7 +4985,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>46</v>
       </c>
@@ -5036,7 +5032,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>47</v>
       </c>
@@ -5083,7 +5079,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>48</v>
       </c>
@@ -5130,7 +5126,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>49</v>
       </c>
@@ -5177,7 +5173,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>50</v>
       </c>
@@ -5224,7 +5220,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>51</v>
       </c>
@@ -5271,7 +5267,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>52</v>
       </c>
@@ -5318,7 +5314,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>53</v>
       </c>
@@ -5365,7 +5361,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>54</v>
       </c>
@@ -5412,7 +5408,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>55</v>
       </c>
@@ -5459,7 +5455,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>56</v>
       </c>
@@ -5506,7 +5502,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>57</v>
       </c>
@@ -5553,7 +5549,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>58</v>
       </c>
@@ -5600,7 +5596,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>59</v>
       </c>
@@ -5647,7 +5643,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>60</v>
       </c>
@@ -5694,7 +5690,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>61</v>
       </c>
@@ -5741,7 +5737,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>62</v>
       </c>
@@ -5788,7 +5784,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>63</v>
       </c>
@@ -5835,7 +5831,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>64</v>
       </c>
@@ -5882,7 +5878,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>65</v>
       </c>
@@ -5929,7 +5925,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>66</v>
       </c>
@@ -5976,7 +5972,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>67</v>
       </c>
@@ -6023,7 +6019,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>68</v>
       </c>
@@ -6070,7 +6066,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>69</v>
       </c>
@@ -6117,7 +6113,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>70</v>
       </c>
@@ -6164,7 +6160,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,7 +6207,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>72</v>
       </c>
@@ -6258,7 +6254,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>73</v>
       </c>
@@ -6305,7 +6301,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>74</v>
       </c>
@@ -6352,7 +6348,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>75</v>
       </c>
@@ -6399,7 +6395,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>76</v>
       </c>
@@ -6446,7 +6442,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,7 +6489,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>78</v>
       </c>
@@ -6540,7 +6536,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>79</v>
       </c>
@@ -6587,7 +6583,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>80</v>
       </c>
@@ -6634,7 +6630,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>81</v>
       </c>
@@ -6681,7 +6677,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>82</v>
       </c>
@@ -6728,7 +6724,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>83</v>
       </c>
@@ -6775,7 +6771,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>84</v>
       </c>
@@ -6822,7 +6818,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>85</v>
       </c>
@@ -6869,7 +6865,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>86</v>
       </c>
@@ -6916,7 +6912,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>87</v>
       </c>
@@ -6963,7 +6959,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>88</v>
       </c>
@@ -7010,7 +7006,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>89</v>
       </c>
@@ -7057,7 +7053,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>90</v>
       </c>
@@ -7104,7 +7100,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>91</v>
       </c>
@@ -7151,7 +7147,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>92</v>
       </c>
@@ -7198,7 +7194,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>93</v>
       </c>
@@ -7245,7 +7241,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>94</v>
       </c>
@@ -7292,7 +7288,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>95</v>
       </c>
@@ -7339,7 +7335,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>96</v>
       </c>
@@ -7386,7 +7382,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>97</v>
       </c>
@@ -7433,7 +7429,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>98</v>
       </c>
@@ -7480,7 +7476,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>99</v>
       </c>
@@ -7527,7 +7523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>100</v>
       </c>
@@ -7574,7 +7570,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>101</v>
       </c>
@@ -7621,7 +7617,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>102</v>
       </c>
@@ -7668,7 +7664,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>103</v>
       </c>
@@ -7715,7 +7711,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>104</v>
       </c>
@@ -7762,7 +7758,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>105</v>
       </c>
@@ -7809,7 +7805,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>106</v>
       </c>
@@ -7856,7 +7852,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>107</v>
       </c>
@@ -7903,7 +7899,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>108</v>
       </c>
@@ -7950,7 +7946,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>109</v>
       </c>
@@ -7997,7 +7993,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>110</v>
       </c>
@@ -8044,7 +8040,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>111</v>
       </c>
@@ -8091,7 +8087,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>112</v>
       </c>
@@ -8138,7 +8134,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>113</v>
       </c>
@@ -8185,7 +8181,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>114</v>
       </c>
@@ -8232,7 +8228,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>115</v>
       </c>
@@ -8279,7 +8275,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>116</v>
       </c>
@@ -8326,7 +8322,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>117</v>
       </c>
@@ -8373,7 +8369,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>118</v>
       </c>
@@ -8420,7 +8416,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>119</v>
       </c>
@@ -8467,7 +8463,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>120</v>
       </c>
@@ -8514,7 +8510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>121</v>
       </c>
@@ -8561,7 +8557,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>122</v>
       </c>
@@ -8608,7 +8604,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>123</v>
       </c>
@@ -8655,7 +8651,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>124</v>
       </c>
@@ -8702,7 +8698,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>125</v>
       </c>
@@ -8749,7 +8745,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>126</v>
       </c>
@@ -8796,7 +8792,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>127</v>
       </c>
@@ -8843,7 +8839,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>128</v>
       </c>
@@ -8890,7 +8886,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>129</v>
       </c>
@@ -8937,7 +8933,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>130</v>
       </c>
@@ -8984,7 +8980,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>131</v>
       </c>
@@ -9031,7 +9027,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>132</v>
       </c>
@@ -9078,7 +9074,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>133</v>
       </c>
@@ -9125,7 +9121,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>134</v>
       </c>
@@ -9172,7 +9168,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>135</v>
       </c>
@@ -9219,7 +9215,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>136</v>
       </c>
@@ -9266,7 +9262,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>137</v>
       </c>
@@ -9313,7 +9309,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>138</v>
       </c>
@@ -9360,7 +9356,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>139</v>
       </c>
@@ -9407,7 +9403,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>140</v>
       </c>
@@ -9454,7 +9450,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>141</v>
       </c>
@@ -9501,7 +9497,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>142</v>
       </c>
@@ -9548,7 +9544,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>143</v>
       </c>
@@ -9595,7 +9591,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>144</v>
       </c>
@@ -9642,7 +9638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>145</v>
       </c>
@@ -9689,7 +9685,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>146</v>
       </c>
@@ -9736,7 +9732,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>147</v>
       </c>
@@ -9783,7 +9779,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>148</v>
       </c>
@@ -9830,7 +9826,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>149</v>
       </c>
@@ -9877,7 +9873,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>150</v>
       </c>
@@ -9924,7 +9920,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>151</v>
       </c>
@@ -9971,7 +9967,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>152</v>
       </c>
@@ -10018,7 +10014,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>153</v>
       </c>
@@ -10065,7 +10061,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>154</v>
       </c>
@@ -10112,7 +10108,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>155</v>
       </c>
@@ -10159,7 +10155,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>156</v>
       </c>
@@ -10206,7 +10202,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>157</v>
       </c>
@@ -10253,7 +10249,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>158</v>
       </c>
@@ -10300,7 +10296,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>159</v>
       </c>
@@ -10347,7 +10343,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>160</v>
       </c>
@@ -10394,7 +10390,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>161</v>
       </c>
@@ -10441,7 +10437,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>162</v>
       </c>
@@ -10488,7 +10484,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>163</v>
       </c>
@@ -10535,7 +10531,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>164</v>
       </c>
@@ -10582,7 +10578,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>165</v>
       </c>
@@ -10629,7 +10625,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>166</v>
       </c>
@@ -10676,7 +10672,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>167</v>
       </c>
@@ -10723,7 +10719,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>168</v>
       </c>
@@ -10770,7 +10766,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>169</v>
       </c>
@@ -10817,7 +10813,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>170</v>
       </c>
@@ -10864,7 +10860,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>171</v>
       </c>
@@ -10911,7 +10907,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>172</v>
       </c>
@@ -10958,7 +10954,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>173</v>
       </c>
@@ -11005,7 +11001,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>174</v>
       </c>
@@ -11052,7 +11048,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>175</v>
       </c>
@@ -11099,7 +11095,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>176</v>
       </c>
@@ -11146,7 +11142,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>177</v>
       </c>
@@ -11193,7 +11189,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>178</v>
       </c>
@@ -11240,7 +11236,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>179</v>
       </c>
@@ -11287,7 +11283,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>180</v>
       </c>
@@ -11334,7 +11330,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>181</v>
       </c>
@@ -11381,7 +11377,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>182</v>
       </c>
@@ -11428,7 +11424,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>183</v>
       </c>
@@ -11475,7 +11471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>184</v>
       </c>
@@ -11522,7 +11518,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>185</v>
       </c>
@@ -11569,7 +11565,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>186</v>
       </c>
@@ -11616,7 +11612,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>187</v>
       </c>
@@ -11663,7 +11659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>188</v>
       </c>
@@ -11710,7 +11706,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>189</v>
       </c>
@@ -11757,7 +11753,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>190</v>
       </c>
@@ -11804,7 +11800,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>191</v>
       </c>
@@ -11851,7 +11847,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>192</v>
       </c>
@@ -11898,7 +11894,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>193</v>
       </c>
@@ -11945,7 +11941,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>194</v>
       </c>
@@ -11992,7 +11988,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>195</v>
       </c>
@@ -12039,7 +12035,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>196</v>
       </c>
@@ -12086,7 +12082,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>197</v>
       </c>
@@ -12133,7 +12129,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>198</v>
       </c>
@@ -12180,7 +12176,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>199</v>
       </c>
@@ -12227,7 +12223,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>200</v>
       </c>
@@ -12274,7 +12270,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>201</v>
       </c>
@@ -12321,7 +12317,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>202</v>
       </c>
@@ -12368,7 +12364,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>203</v>
       </c>
@@ -12415,7 +12411,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>204</v>
       </c>
@@ -12462,7 +12458,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>205</v>
       </c>
@@ -12509,7 +12505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>206</v>
       </c>
@@ -12556,7 +12552,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>207</v>
       </c>
@@ -12603,7 +12599,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>208</v>
       </c>
@@ -12650,7 +12646,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>209</v>
       </c>
@@ -12697,7 +12693,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>210</v>
       </c>
@@ -12744,7 +12740,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>211</v>
       </c>
@@ -12791,7 +12787,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>212</v>
       </c>
@@ -12838,7 +12834,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>213</v>
       </c>
@@ -12885,7 +12881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>214</v>
       </c>
@@ -12932,7 +12928,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>215</v>
       </c>
@@ -12979,7 +12975,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>216</v>
       </c>
@@ -13026,7 +13022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>217</v>
       </c>
@@ -13073,7 +13069,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>218</v>
       </c>
@@ -13120,7 +13116,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>219</v>
       </c>
@@ -13167,7 +13163,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>220</v>
       </c>
@@ -13214,7 +13210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>221</v>
       </c>
@@ -13261,7 +13257,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>222</v>
       </c>
@@ -13308,7 +13304,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>223</v>
       </c>
@@ -13355,7 +13351,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>224</v>
       </c>
@@ -13402,7 +13398,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>225</v>
       </c>
@@ -13449,7 +13445,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>226</v>
       </c>
@@ -13496,7 +13492,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>227</v>
       </c>
@@ -13543,7 +13539,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>228</v>
       </c>
@@ -13590,7 +13586,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
         <v>229</v>
       </c>
@@ -13637,7 +13633,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>230</v>
       </c>
@@ -13684,7 +13680,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
         <v>231</v>
       </c>
@@ -13731,7 +13727,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>232</v>
       </c>
@@ -13778,7 +13774,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
         <v>233</v>
       </c>
@@ -13825,7 +13821,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>234</v>
       </c>
@@ -13872,7 +13868,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>235</v>
       </c>
@@ -13919,7 +13915,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>236</v>
       </c>
@@ -13966,7 +13962,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>237</v>
       </c>
@@ -14013,7 +14009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>238</v>
       </c>
@@ -14060,7 +14056,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>239</v>
       </c>
@@ -14107,7 +14103,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>240</v>
       </c>
@@ -14154,7 +14150,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>241</v>
       </c>
@@ -14201,7 +14197,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
         <v>242</v>
       </c>
@@ -14248,7 +14244,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>243</v>
       </c>
@@ -14295,7 +14291,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>244</v>
       </c>
@@ -14342,7 +14338,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
         <v>245</v>
       </c>
@@ -14389,7 +14385,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>246</v>
       </c>
@@ -14436,7 +14432,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
         <v>247</v>
       </c>
@@ -14483,7 +14479,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>248</v>
       </c>
@@ -14530,7 +14526,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>249</v>
       </c>
@@ -14577,7 +14573,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
         <v>250</v>
       </c>
@@ -14624,7 +14620,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
         <v>251</v>
       </c>
@@ -14671,7 +14667,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
         <v>252</v>
       </c>
@@ -14718,7 +14714,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
         <v>253</v>
       </c>
@@ -14765,7 +14761,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
         <v>254</v>
       </c>
@@ -14812,7 +14808,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
         <v>255</v>
       </c>
@@ -14859,7 +14855,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
         <v>256</v>
       </c>
@@ -14906,7 +14902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
         <v>257</v>
       </c>
@@ -14953,7 +14949,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
         <v>258</v>
       </c>
@@ -15000,7 +14996,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
         <v>259</v>
       </c>
@@ -15047,7 +15043,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
         <v>260</v>
       </c>
@@ -15094,7 +15090,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
         <v>261</v>
       </c>
@@ -15141,7 +15137,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
         <v>262</v>
       </c>
@@ -15188,7 +15184,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
         <v>263</v>
       </c>
@@ -15235,7 +15231,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
         <v>264</v>
       </c>
@@ -15282,7 +15278,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
         <v>265</v>
       </c>
@@ -15329,7 +15325,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
         <v>266</v>
       </c>
@@ -15376,7 +15372,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
         <v>267</v>
       </c>
@@ -15423,7 +15419,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
         <v>268</v>
       </c>
@@ -15470,7 +15466,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
         <v>269</v>
       </c>
@@ -15517,7 +15513,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
         <v>270</v>
       </c>
@@ -15564,7 +15560,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
         <v>271</v>
       </c>
@@ -15611,7 +15607,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
         <v>272</v>
       </c>
@@ -15658,7 +15654,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
         <v>273</v>
       </c>
@@ -15705,7 +15701,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
         <v>274</v>
       </c>
@@ -15752,7 +15748,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
         <v>275</v>
       </c>
@@ -15799,7 +15795,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
         <v>276</v>
       </c>
@@ -15846,7 +15842,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
         <v>277</v>
       </c>
@@ -15893,7 +15889,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
         <v>278</v>
       </c>
@@ -15940,7 +15936,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
         <v>279</v>
       </c>
@@ -15987,7 +15983,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
         <v>280</v>
       </c>
@@ -16034,7 +16030,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
         <v>281</v>
       </c>
@@ -16081,7 +16077,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
         <v>282</v>
       </c>
@@ -16128,7 +16124,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
         <v>283</v>
       </c>
@@ -16175,7 +16171,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
         <v>284</v>
       </c>
@@ -16222,7 +16218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
         <v>285</v>
       </c>
@@ -16269,7 +16265,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
         <v>286</v>
       </c>
@@ -16316,7 +16312,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
         <v>287</v>
       </c>
@@ -16363,7 +16359,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
         <v>288</v>
       </c>
@@ -16410,7 +16406,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
         <v>289</v>
       </c>
@@ -16457,7 +16453,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
         <v>290</v>
       </c>
@@ -16504,7 +16500,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
         <v>291</v>
       </c>
@@ -16551,7 +16547,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
         <v>292</v>
       </c>
@@ -16598,7 +16594,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
         <v>293</v>
       </c>
@@ -16645,7 +16641,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
         <v>294</v>
       </c>
@@ -16692,7 +16688,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
         <v>295</v>
       </c>
@@ -16739,7 +16735,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
         <v>296</v>
       </c>
@@ -16786,7 +16782,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
         <v>297</v>
       </c>
@@ -16833,7 +16829,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
         <v>298</v>
       </c>
@@ -16880,7 +16876,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
         <v>299</v>
       </c>
@@ -16927,7 +16923,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
         <v>300</v>
       </c>
@@ -16974,7 +16970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
         <v>301</v>
       </c>
@@ -17021,7 +17017,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
         <v>302</v>
       </c>
@@ -17068,7 +17064,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
         <v>303</v>
       </c>
@@ -17115,7 +17111,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
         <v>304</v>
       </c>
@@ -17162,7 +17158,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
         <v>305</v>
       </c>
@@ -17209,7 +17205,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
         <v>306</v>
       </c>
@@ -17256,7 +17252,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="s">
         <v>307</v>
       </c>
@@ -17303,7 +17299,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
         <v>308</v>
       </c>
@@ -17350,7 +17346,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
         <v>309</v>
       </c>
@@ -17397,7 +17393,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
         <v>310</v>
       </c>
@@ -17444,7 +17440,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="s">
         <v>311</v>
       </c>
@@ -17491,7 +17487,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
         <v>312</v>
       </c>
@@ -17538,7 +17534,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
         <v>313</v>
       </c>
@@ -17585,7 +17581,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
         <v>314</v>
       </c>
@@ -17632,7 +17628,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
         <v>315</v>
       </c>
@@ -17679,7 +17675,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
         <v>316</v>
       </c>
@@ -17726,7 +17722,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A315" s="1" t="s">
         <v>317</v>
       </c>
@@ -17773,7 +17769,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
         <v>318</v>
       </c>
@@ -17820,7 +17816,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
         <v>319</v>
       </c>
@@ -17867,7 +17863,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A318" s="1" t="s">
         <v>320</v>
       </c>
@@ -17914,7 +17910,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="319" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A319" s="1" t="s">
         <v>321</v>
       </c>
@@ -17961,7 +17957,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
         <v>322</v>
       </c>
@@ -18008,7 +18004,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="s">
         <v>323</v>
       </c>
@@ -18055,7 +18051,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="322" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
         <v>324</v>
       </c>
@@ -18102,7 +18098,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="323" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="s">
         <v>325</v>
       </c>
@@ -18149,7 +18145,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="324" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
         <v>326</v>
       </c>
@@ -18196,7 +18192,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="325" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A325" s="1" t="s">
         <v>327</v>
       </c>
@@ -18243,7 +18239,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
         <v>328</v>
       </c>
@@ -18290,7 +18286,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="327" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
         <v>329</v>
       </c>
@@ -18337,7 +18333,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="328" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
         <v>330</v>
       </c>
@@ -18384,7 +18380,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="329" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A329" s="1" t="s">
         <v>331</v>
       </c>
@@ -18431,7 +18427,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="330" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
         <v>332</v>
       </c>
@@ -18478,7 +18474,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="331" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A331" s="1" t="s">
         <v>333</v>
       </c>
@@ -18525,7 +18521,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="332" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
         <v>334</v>
       </c>
@@ -18572,7 +18568,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="333" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
         <v>335</v>
       </c>
@@ -18619,7 +18615,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="334" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
         <v>336</v>
       </c>
@@ -18666,7 +18662,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="335" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="s">
         <v>337</v>
       </c>
@@ -18713,7 +18709,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="336" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
         <v>338</v>
       </c>
@@ -18760,7 +18756,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="337" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A337" s="1" t="s">
         <v>339</v>
       </c>
@@ -18807,7 +18803,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="338" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
         <v>340</v>
       </c>
@@ -18854,7 +18850,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="339" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
         <v>341</v>
       </c>
@@ -18901,7 +18897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
         <v>342</v>
       </c>
@@ -18948,7 +18944,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="341" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="s">
         <v>343</v>
       </c>
@@ -18995,7 +18991,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="342" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A342" s="1" t="s">
         <v>344</v>
       </c>
@@ -19042,7 +19038,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="343" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A343" s="1" t="s">
         <v>345</v>
       </c>
@@ -19089,7 +19085,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="344" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A344" s="1" t="s">
         <v>346</v>
       </c>
@@ -19136,7 +19132,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="345" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A345" s="1" t="s">
         <v>347</v>
       </c>
@@ -19183,7 +19179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A346" s="1" t="s">
         <v>348</v>
       </c>
@@ -19230,7 +19226,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="347" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A347" s="1" t="s">
         <v>349</v>
       </c>
@@ -19277,7 +19273,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="348" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="s">
         <v>350</v>
       </c>
@@ -19324,7 +19320,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="349" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A349" s="1" t="s">
         <v>351</v>
       </c>
@@ -19371,7 +19367,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="350" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A350" s="1" t="s">
         <v>352</v>
       </c>
@@ -19418,7 +19414,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="351" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="s">
         <v>353</v>
       </c>
@@ -19465,7 +19461,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="352" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="s">
         <v>354</v>
       </c>
@@ -19512,7 +19508,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="353" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A353" s="1" t="s">
         <v>355</v>
       </c>
@@ -19559,7 +19555,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="354" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A354" s="1" t="s">
         <v>356</v>
       </c>
@@ -19606,7 +19602,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="355" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="s">
         <v>357</v>
       </c>
@@ -19653,7 +19649,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="356" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="s">
         <v>358</v>
       </c>
@@ -19700,7 +19696,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="357" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A357" s="1" t="s">
         <v>359</v>
       </c>
@@ -19747,7 +19743,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="358" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
         <v>360</v>
       </c>
@@ -19794,7 +19790,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="359" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A359" s="1" t="s">
         <v>361</v>
       </c>
@@ -19841,7 +19837,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="360" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A360" s="1" t="s">
         <v>362</v>
       </c>
@@ -19888,7 +19884,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="361" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A361" s="1" t="s">
         <v>363</v>
       </c>
@@ -19935,7 +19931,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="362" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A362" s="1" t="s">
         <v>364</v>
       </c>
@@ -19982,7 +19978,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="363" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A363" s="1" t="s">
         <v>365</v>
       </c>
@@ -20029,7 +20025,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="364" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A364" s="1" t="s">
         <v>366</v>
       </c>
@@ -20076,7 +20072,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="365" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A365" s="1" t="s">
         <v>367</v>
       </c>
@@ -20123,7 +20119,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="366" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="s">
         <v>368</v>
       </c>
@@ -20170,7 +20166,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="367" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A367" s="1" t="s">
         <v>369</v>
       </c>
@@ -20217,7 +20213,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="368" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A368" s="1" t="s">
         <v>370</v>
       </c>
@@ -20264,7 +20260,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="369" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A369" s="1" t="s">
         <v>371</v>
       </c>
@@ -20311,7 +20307,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="370" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A370" s="1" t="s">
         <v>372</v>
       </c>
@@ -20358,7 +20354,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="371" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A371" s="1" t="s">
         <v>373</v>
       </c>
@@ -20405,7 +20401,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="372" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A372" s="1" t="s">
         <v>374</v>
       </c>
@@ -20452,7 +20448,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="373" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="s">
         <v>375</v>
       </c>
@@ -20499,7 +20495,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="374" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A374" s="1" t="s">
         <v>376</v>
       </c>
@@ -20546,7 +20542,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="375" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A375" s="1" t="s">
         <v>377</v>
       </c>
@@ -20593,7 +20589,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="376" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A376" s="1" t="s">
         <v>378</v>
       </c>
@@ -20640,7 +20636,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="377" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A377" s="1" t="s">
         <v>379</v>
       </c>
@@ -20687,7 +20683,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="378" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A378" s="1" t="s">
         <v>380</v>
       </c>
@@ -20734,7 +20730,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="379" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A379" s="1" t="s">
         <v>381</v>
       </c>
@@ -20781,7 +20777,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="380" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A380" s="1" t="s">
         <v>382</v>
       </c>
@@ -20828,7 +20824,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="381" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A381" s="1" t="s">
         <v>383</v>
       </c>
@@ -20875,7 +20871,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="382" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A382" s="1" t="s">
         <v>384</v>
       </c>
@@ -20922,7 +20918,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="383" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A383" s="1" t="s">
         <v>385</v>
       </c>
@@ -20969,7 +20965,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="384" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A384" s="1" t="s">
         <v>386</v>
       </c>
@@ -21016,7 +21012,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="385" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A385" s="1" t="s">
         <v>387</v>
       </c>
@@ -21063,7 +21059,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="386" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A386" s="1" t="s">
         <v>388</v>
       </c>
@@ -21110,7 +21106,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="387" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A387" s="1" t="s">
         <v>389</v>
       </c>
@@ -21157,7 +21153,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="388" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A388" s="1" t="s">
         <v>390</v>
       </c>
@@ -21204,7 +21200,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="389" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A389" s="1" t="s">
         <v>391</v>
       </c>
@@ -21251,7 +21247,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="390" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A390" s="1" t="s">
         <v>392</v>
       </c>
@@ -21298,7 +21294,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="391" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A391" s="1" t="s">
         <v>393</v>
       </c>
@@ -21345,7 +21341,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="392" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A392" s="1" t="s">
         <v>394</v>
       </c>
@@ -21392,7 +21388,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="393" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A393" s="1" t="s">
         <v>395</v>
       </c>
@@ -21439,7 +21435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A394" s="1" t="s">
         <v>396</v>
       </c>
@@ -21486,7 +21482,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="395" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A395" s="1" t="s">
         <v>397</v>
       </c>
@@ -21533,7 +21529,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="396" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A396" s="1" t="s">
         <v>398</v>
       </c>
@@ -21580,7 +21576,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="397" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A397" s="1" t="s">
         <v>399</v>
       </c>
@@ -21627,7 +21623,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="398" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A398" s="1" t="s">
         <v>400</v>
       </c>
@@ -21674,7 +21670,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="399" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A399" s="1" t="s">
         <v>401</v>
       </c>
@@ -21721,7 +21717,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="400" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A400" s="1" t="s">
         <v>402</v>
       </c>
@@ -21768,7 +21764,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="401" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A401" s="1" t="s">
         <v>403</v>
       </c>
@@ -21815,7 +21811,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="402" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A402" s="1" t="s">
         <v>404</v>
       </c>
@@ -21862,7 +21858,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="403" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A403" s="1" t="s">
         <v>405</v>
       </c>
@@ -21909,7 +21905,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="404" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A404" s="1" t="s">
         <v>406</v>
       </c>
@@ -21956,7 +21952,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="405" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A405" s="1" t="s">
         <v>407</v>
       </c>
@@ -22003,7 +21999,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="406" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A406" s="1" t="s">
         <v>408</v>
       </c>
@@ -22050,7 +22046,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="407" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A407" s="1" t="s">
         <v>409</v>
       </c>
@@ -22097,7 +22093,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="408" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A408" s="1" t="s">
         <v>410</v>
       </c>
@@ -22144,7 +22140,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="409" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A409" s="1" t="s">
         <v>411</v>
       </c>
@@ -22191,7 +22187,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="410" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A410" s="1" t="s">
         <v>412</v>
       </c>
@@ -22238,7 +22234,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="411" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A411" s="1" t="s">
         <v>413</v>
       </c>
@@ -22285,7 +22281,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="412" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A412" s="1" t="s">
         <v>414</v>
       </c>
@@ -22332,7 +22328,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="413" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A413" s="1" t="s">
         <v>415</v>
       </c>
@@ -22379,7 +22375,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="414" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A414" s="1" t="s">
         <v>416</v>
       </c>
@@ -22426,7 +22422,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="415" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A415" s="1" t="s">
         <v>417</v>
       </c>
@@ -22473,7 +22469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A416" s="1" t="s">
         <v>418</v>
       </c>
@@ -22520,7 +22516,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="417" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A417" s="1" t="s">
         <v>419</v>
       </c>
@@ -22567,7 +22563,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="418" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A418" s="1" t="s">
         <v>420</v>
       </c>
@@ -22614,7 +22610,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="419" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A419" s="1" t="s">
         <v>421</v>
       </c>
@@ -22661,7 +22657,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="420" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A420" s="1" t="s">
         <v>422</v>
       </c>
@@ -22708,7 +22704,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="421" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A421" s="1" t="s">
         <v>423</v>
       </c>
@@ -22755,7 +22751,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="422" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A422" s="1" t="s">
         <v>424</v>
       </c>
@@ -22802,7 +22798,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="423" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A423" s="1" t="s">
         <v>425</v>
       </c>
@@ -22849,7 +22845,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="424" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A424" s="1" t="s">
         <v>426</v>
       </c>
@@ -22896,7 +22892,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="425" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A425" s="1" t="s">
         <v>427</v>
       </c>
@@ -22943,7 +22939,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="426" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A426" s="1" t="s">
         <v>428</v>
       </c>
@@ -22990,7 +22986,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="427" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A427" s="1" t="s">
         <v>429</v>
       </c>
@@ -23037,7 +23033,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="428" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A428" s="1" t="s">
         <v>430</v>
       </c>
@@ -23084,7 +23080,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="429" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A429" s="1" t="s">
         <v>431</v>
       </c>
@@ -23131,7 +23127,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="430" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A430" s="1" t="s">
         <v>432</v>
       </c>
@@ -23178,7 +23174,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="431" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A431" s="1" t="s">
         <v>433</v>
       </c>
@@ -23225,7 +23221,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="432" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A432" s="1" t="s">
         <v>434</v>
       </c>
@@ -23272,7 +23268,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="433" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A433" s="1" t="s">
         <v>435</v>
       </c>
@@ -23319,7 +23315,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="434" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A434" s="1" t="s">
         <v>436</v>
       </c>
@@ -23366,7 +23362,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="435" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A435" s="1" t="s">
         <v>437</v>
       </c>
@@ -23413,7 +23409,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="436" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A436" s="1" t="s">
         <v>438</v>
       </c>
@@ -23460,7 +23456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A437" s="1" t="s">
         <v>439</v>
       </c>
@@ -23507,7 +23503,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="438" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A438" s="1" t="s">
         <v>440</v>
       </c>
@@ -23554,7 +23550,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="439" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A439" s="1" t="s">
         <v>441</v>
       </c>
@@ -23601,7 +23597,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="440" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A440" s="1" t="s">
         <v>442</v>
       </c>
@@ -23648,7 +23644,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="441" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A441" s="1" t="s">
         <v>443</v>
       </c>
@@ -23695,7 +23691,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="442" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A442" s="1" t="s">
         <v>444</v>
       </c>
@@ -23742,7 +23738,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="443" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A443" s="1" t="s">
         <v>445</v>
       </c>
@@ -23789,7 +23785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A444" s="1" t="s">
         <v>446</v>
       </c>
@@ -23836,7 +23832,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="445" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A445" s="1" t="s">
         <v>447</v>
       </c>
@@ -23883,7 +23879,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="446" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A446" s="1" t="s">
         <v>448</v>
       </c>
@@ -23930,7 +23926,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="447" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A447" s="1" t="s">
         <v>449</v>
       </c>
@@ -23977,7 +23973,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="448" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A448" s="1" t="s">
         <v>450</v>
       </c>
@@ -24024,7 +24020,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="449" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A449" s="1" t="s">
         <v>451</v>
       </c>
@@ -24071,7 +24067,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="450" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A450" s="1" t="s">
         <v>452</v>
       </c>
@@ -24118,7 +24114,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="451" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A451" s="1" t="s">
         <v>453</v>
       </c>
@@ -24165,7 +24161,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="452" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A452" s="1" t="s">
         <v>454</v>
       </c>
@@ -24212,7 +24208,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="453" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A453" s="1" t="s">
         <v>455</v>
       </c>
@@ -24259,7 +24255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A454" s="1" t="s">
         <v>456</v>
       </c>
@@ -24306,7 +24302,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="455" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A455" s="1" t="s">
         <v>457</v>
       </c>
@@ -24353,7 +24349,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="456" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A456" s="1" t="s">
         <v>458</v>
       </c>
@@ -24400,7 +24396,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="457" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A457" s="1" t="s">
         <v>459</v>
       </c>
@@ -24447,7 +24443,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="458" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A458" s="1" t="s">
         <v>460</v>
       </c>
@@ -24494,7 +24490,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="459" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A459" s="1" t="s">
         <v>461</v>
       </c>
@@ -24541,7 +24537,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="460" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A460" s="1" t="s">
         <v>462</v>
       </c>
@@ -24588,7 +24584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A461" s="1" t="s">
         <v>463</v>
       </c>
@@ -24635,7 +24631,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="462" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A462" s="1" t="s">
         <v>464</v>
       </c>
@@ -24682,7 +24678,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="463" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A463" s="1" t="s">
         <v>465</v>
       </c>
@@ -24729,7 +24725,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="464" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A464" s="1" t="s">
         <v>466</v>
       </c>
@@ -24776,7 +24772,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="465" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A465" s="1" t="s">
         <v>467</v>
       </c>
@@ -24823,7 +24819,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="466" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A466" s="1" t="s">
         <v>468</v>
       </c>
@@ -24870,7 +24866,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="467" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A467" s="1" t="s">
         <v>469</v>
       </c>
@@ -24917,7 +24913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A468" s="1" t="s">
         <v>470</v>
       </c>
@@ -24964,7 +24960,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="469" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A469" s="1" t="s">
         <v>471</v>
       </c>
@@ -25011,7 +25007,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="470" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A470" s="1" t="s">
         <v>472</v>
       </c>
@@ -25058,7 +25054,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="471" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A471" s="1" t="s">
         <v>473</v>
       </c>
@@ -25105,7 +25101,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="472" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A472" s="1" t="s">
         <v>474</v>
       </c>
@@ -25152,7 +25148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A473" s="1" t="s">
         <v>475</v>
       </c>
@@ -25199,7 +25195,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="474" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A474" s="1" t="s">
         <v>476</v>
       </c>
@@ -25246,7 +25242,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="475" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A475" s="1" t="s">
         <v>477</v>
       </c>
@@ -25293,7 +25289,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="476" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A476" s="1" t="s">
         <v>478</v>
       </c>
@@ -25340,7 +25336,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="477" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A477" s="1" t="s">
         <v>479</v>
       </c>
@@ -25387,7 +25383,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="478" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A478" s="1" t="s">
         <v>480</v>
       </c>
@@ -25434,7 +25430,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="479" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A479" s="1" t="s">
         <v>481</v>
       </c>
@@ -25481,7 +25477,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="480" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A480" s="1" t="s">
         <v>482</v>
       </c>
@@ -25528,7 +25524,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="481" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A481" s="1" t="s">
         <v>483</v>
       </c>
@@ -25575,7 +25571,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="482" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A482" s="1" t="s">
         <v>484</v>
       </c>
@@ -25622,7 +25618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A483" s="1" t="s">
         <v>485</v>
       </c>
@@ -25669,7 +25665,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="484" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A484" s="1" t="s">
         <v>486</v>
       </c>
@@ -25716,7 +25712,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="485" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A485" s="1" t="s">
         <v>487</v>
       </c>
@@ -25763,7 +25759,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="486" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A486" s="1" t="s">
         <v>488</v>
       </c>
@@ -25810,7 +25806,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="487" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A487" s="1" t="s">
         <v>489</v>
       </c>
@@ -25857,7 +25853,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="488" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A488" s="1" t="s">
         <v>490</v>
       </c>
@@ -25904,7 +25900,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="489" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A489" s="1" t="s">
         <v>491</v>
       </c>
@@ -25951,7 +25947,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="490" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A490" s="1" t="s">
         <v>492</v>
       </c>
@@ -25998,7 +25994,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="491" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A491" s="1" t="s">
         <v>493</v>
       </c>
@@ -26045,7 +26041,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="492" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A492" s="1" t="s">
         <v>494</v>
       </c>
@@ -26092,7 +26088,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="493" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A493" s="1" t="s">
         <v>495</v>
       </c>
@@ -26139,7 +26135,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="494" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A494" s="1" t="s">
         <v>496</v>
       </c>
@@ -26186,7 +26182,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="495" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A495" s="1" t="s">
         <v>497</v>
       </c>
@@ -26233,7 +26229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A496" s="1" t="s">
         <v>498</v>
       </c>
@@ -26280,7 +26276,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="497" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A497" s="1" t="s">
         <v>499</v>
       </c>
@@ -26327,7 +26323,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="498" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A498" s="1" t="s">
         <v>500</v>
       </c>
@@ -26374,7 +26370,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="499" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A499" s="1" t="s">
         <v>501</v>
       </c>
@@ -26421,7 +26417,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="500" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A500" s="1" t="s">
         <v>502</v>
       </c>
@@ -26468,7 +26464,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="501" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A501" s="1" t="s">
         <v>503</v>
       </c>
@@ -26515,7 +26511,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="502" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A502" s="1" t="s">
         <v>504</v>
       </c>
@@ -26562,7 +26558,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="503" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A503" s="1" t="s">
         <v>505</v>
       </c>
@@ -26609,7 +26605,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="504" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A504" s="1" t="s">
         <v>506</v>
       </c>
@@ -26656,7 +26652,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="505" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A505" s="1" t="s">
         <v>507</v>
       </c>
@@ -26703,7 +26699,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="506" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A506" s="1" t="s">
         <v>508</v>
       </c>
@@ -26750,7 +26746,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="507" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A507" s="1" t="s">
         <v>509</v>
       </c>
@@ -26797,7 +26793,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="508" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A508" s="1" t="s">
         <v>510</v>
       </c>
@@ -26844,7 +26840,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="509" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A509" s="1" t="s">
         <v>511</v>
       </c>
@@ -26891,7 +26887,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="510" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A510" s="1" t="s">
         <v>512</v>
       </c>
@@ -26938,7 +26934,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="511" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A511" s="1" t="s">
         <v>513</v>
       </c>
@@ -26985,7 +26981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A512" s="1" t="s">
         <v>514</v>
       </c>
@@ -27032,7 +27028,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="513" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A513" s="1" t="s">
         <v>515</v>
       </c>
@@ -27079,7 +27075,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="514" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A514" s="1" t="s">
         <v>516</v>
       </c>
@@ -27126,7 +27122,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="515" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A515" s="1" t="s">
         <v>517</v>
       </c>
@@ -27173,7 +27169,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="516" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A516" s="1" t="s">
         <v>518</v>
       </c>
@@ -27220,7 +27216,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="517" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A517" s="1" t="s">
         <v>519</v>
       </c>
@@ -27267,7 +27263,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="518" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A518" s="1" t="s">
         <v>520</v>
       </c>
@@ -27314,7 +27310,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="519" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A519" s="1" t="s">
         <v>521</v>
       </c>
@@ -27361,7 +27357,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="520" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A520" s="1" t="s">
         <v>522</v>
       </c>
@@ -27408,7 +27404,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="521" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A521" s="1" t="s">
         <v>523</v>
       </c>
@@ -27455,7 +27451,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="522" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A522" s="1" t="s">
         <v>524</v>
       </c>
@@ -27502,7 +27498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="523" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A523" s="1" t="s">
         <v>525</v>
       </c>
@@ -27549,7 +27545,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="524" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A524" s="1" t="s">
         <v>526</v>
       </c>
@@ -27596,7 +27592,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="525" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A525" s="1" t="s">
         <v>527</v>
       </c>
@@ -27643,7 +27639,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="526" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A526" s="1" t="s">
         <v>528</v>
       </c>
@@ -27690,7 +27686,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="527" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A527" s="1" t="s">
         <v>529</v>
       </c>
@@ -27737,7 +27733,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="528" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A528" s="1" t="s">
         <v>530</v>
       </c>
@@ -27784,7 +27780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A529" s="1" t="s">
         <v>531</v>
       </c>
@@ -27831,7 +27827,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="530" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A530" s="1" t="s">
         <v>532</v>
       </c>
@@ -27878,7 +27874,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="531" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A531" s="1" t="s">
         <v>533</v>
       </c>
@@ -27925,7 +27921,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="532" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A532" s="1" t="s">
         <v>534</v>
       </c>
@@ -27972,7 +27968,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="533" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A533" s="1" t="s">
         <v>535</v>
       </c>
@@ -28019,7 +28015,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="534" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A534" s="1" t="s">
         <v>536</v>
       </c>
@@ -28066,7 +28062,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="535" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A535" s="1" t="s">
         <v>537</v>
       </c>
@@ -28113,7 +28109,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="536" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A536" s="1" t="s">
         <v>538</v>
       </c>
@@ -28160,7 +28156,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="537" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A537" s="1" t="s">
         <v>539</v>
       </c>
@@ -28207,7 +28203,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="538" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A538" s="1" t="s">
         <v>540</v>
       </c>
@@ -28254,7 +28250,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="539" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A539" s="1" t="s">
         <v>541</v>
       </c>
@@ -28301,7 +28297,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="540" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A540" s="1" t="s">
         <v>542</v>
       </c>
@@ -28348,7 +28344,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="541" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A541" s="1" t="s">
         <v>543</v>
       </c>
@@ -28395,7 +28391,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="542" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A542" s="1" t="s">
         <v>544</v>
       </c>
@@ -28442,7 +28438,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="543" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A543" s="1" t="s">
         <v>545</v>
       </c>
@@ -28489,7 +28485,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="544" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A544" s="1" t="s">
         <v>546</v>
       </c>
@@ -28536,7 +28532,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="545" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A545" s="1" t="s">
         <v>547</v>
       </c>
@@ -28583,7 +28579,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="546" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A546" s="1" t="s">
         <v>548</v>
       </c>
@@ -28630,7 +28626,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="547" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A547" s="1" t="s">
         <v>549</v>
       </c>
@@ -28677,7 +28673,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="548" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A548" s="1" t="s">
         <v>550</v>
       </c>
@@ -28724,7 +28720,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="549" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A549" s="1" t="s">
         <v>551</v>
       </c>
@@ -28771,7 +28767,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="550" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A550" s="1" t="s">
         <v>552</v>
       </c>
@@ -28818,7 +28814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A551" s="1" t="s">
         <v>553</v>
       </c>
@@ -28865,7 +28861,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="552" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A552" s="1" t="s">
         <v>554</v>
       </c>
@@ -28912,7 +28908,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="553" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A553" s="1" t="s">
         <v>555</v>
       </c>
@@ -28959,7 +28955,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="554" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A554" s="1" t="s">
         <v>556</v>
       </c>
@@ -29006,7 +29002,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="555" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A555" s="1" t="s">
         <v>557</v>
       </c>
@@ -29053,7 +29049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A556" s="1" t="s">
         <v>558</v>
       </c>
@@ -29100,7 +29096,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="557" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A557" s="1" t="s">
         <v>559</v>
       </c>
@@ -29147,7 +29143,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="558" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A558" s="1" t="s">
         <v>560</v>
       </c>
@@ -29194,7 +29190,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="559" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A559" s="1" t="s">
         <v>561</v>
       </c>
@@ -29241,7 +29237,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="560" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A560" s="1" t="s">
         <v>562</v>
       </c>
@@ -29288,7 +29284,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="561" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A561" s="1" t="s">
         <v>563</v>
       </c>
@@ -29335,7 +29331,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="562" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A562" s="1" t="s">
         <v>564</v>
       </c>
@@ -29382,7 +29378,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="563" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A563" s="1" t="s">
         <v>565</v>
       </c>
@@ -29429,7 +29425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="564" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A564" s="1" t="s">
         <v>566</v>
       </c>
@@ -29476,7 +29472,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="565" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A565" s="1" t="s">
         <v>567</v>
       </c>
@@ -29523,7 +29519,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="566" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A566" s="1" t="s">
         <v>568</v>
       </c>
@@ -29570,7 +29566,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="567" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A567" s="1" t="s">
         <v>569</v>
       </c>
@@ -29617,7 +29613,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="568" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A568" s="5"/>
       <c r="B568" s="5"/>
       <c r="C568" s="5"/>
@@ -29634,24 +29630,24 @@
       <c r="N568" s="5"/>
       <c r="O568" s="5"/>
     </row>
-    <row r="569" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B569" s="7"/>
-      <c r="C569" s="7"/>
-      <c r="D569" s="7"/>
-      <c r="E569" s="7"/>
-      <c r="F569" s="7"/>
-      <c r="G569" s="7"/>
-      <c r="H569" s="7"/>
-      <c r="I569" s="7"/>
-      <c r="J569" s="7"/>
-      <c r="K569" s="7"/>
-      <c r="L569" s="7"/>
-      <c r="M569" s="7"/>
-      <c r="N569" s="7"/>
-      <c r="O569" s="7"/>
-    </row>
-    <row r="570" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A570" s="10" t="s">
+    <row r="569" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B569" s="4"/>
+      <c r="C569" s="4"/>
+      <c r="D569" s="4"/>
+      <c r="E569" s="4"/>
+      <c r="F569" s="4"/>
+      <c r="G569" s="4"/>
+      <c r="H569" s="4"/>
+      <c r="I569" s="4"/>
+      <c r="J569" s="4"/>
+      <c r="K569" s="4"/>
+      <c r="L569" s="4"/>
+      <c r="M569" s="4"/>
+      <c r="N569" s="4"/>
+      <c r="O569" s="4"/>
+    </row>
+    <row r="570" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A570" s="8" t="s">
         <v>570</v>
       </c>
       <c r="B570" s="6"/>
@@ -29669,12 +29665,12 @@
       <c r="N570" s="6"/>
       <c r="O570" s="6"/>
     </row>
-    <row r="571" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B571" s="11"/>
-      <c r="C571" s="11"/>
-      <c r="D571" s="11"/>
-      <c r="E571" s="11"/>
-      <c r="F571" s="11"/>
+    <row r="571" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B571" s="9"/>
+      <c r="C571" s="9"/>
+      <c r="D571" s="9"/>
+      <c r="E571" s="9"/>
+      <c r="F571" s="9"/>
       <c r="G571" s="4"/>
       <c r="H571" s="4"/>
       <c r="I571" s="4"/>
@@ -29685,8 +29681,8 @@
       <c r="N571" s="4"/>
       <c r="O571" s="4"/>
     </row>
-    <row r="573" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B573" s="9"/>
+    <row r="573" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="B573" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="4">
